--- a/WebClient/ResultFiles/IRFC_SITE_PD2805.xlsx
+++ b/WebClient/ResultFiles/IRFC_SITE_PD2805.xlsx
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <si>
     <t>PD2805</t>
   </si>
@@ -170,7 +170,10 @@
     <t>Technology</t>
   </si>
   <si>
-    <t>GL</t>
+    <t>GUL</t>
+  </si>
+  <si>
+    <t>UL</t>
   </si>
   <si>
     <t>L</t>
@@ -218,10 +221,16 @@
     </r>
   </si>
   <si>
-    <t/>
+    <t>5515t</t>
+  </si>
+  <si>
+    <t>5513AC</t>
   </si>
   <si>
     <t>5304AC</t>
+  </si>
+  <si>
+    <t>5513DB</t>
   </si>
   <si>
     <t>5304DB</t>
@@ -249,9 +258,6 @@
       </rPr>
       <t>Total # New</t>
     </r>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>1</t>
@@ -349,7 +355,10 @@
     </r>
   </si>
   <si>
-    <t>46</t>
+    <t>46.0</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -524,10 +533,10 @@
     </r>
   </si>
   <si>
-    <t>51.17</t>
-  </si>
-  <si>
-    <t>50.74</t>
+    <t>45.97</t>
+  </si>
+  <si>
+    <t>47.74</t>
   </si>
   <si>
     <t>47.69</t>
@@ -536,7 +545,7 @@
     <t>TMA Type New</t>
   </si>
   <si>
-    <t xml:space="preserve">No </t>
+    <t>No</t>
   </si>
   <si>
     <t>Combiner_Splitter New</t>
@@ -954,7 +963,7 @@
     <t>DateTime</t>
   </si>
   <si>
-    <t>2021-07-06</t>
+    <t>2021-07-12</t>
   </si>
   <si>
     <t>SiteName</t>
@@ -966,7 +975,7 @@
     <t>SiteAddress</t>
   </si>
   <si>
-    <t>Stara Zagora 52, Zahari Knyazhevski</t>
+    <t>Stara Zagora Tsar Simeon Veliki blvd. 107</t>
   </si>
   <si>
     <t>SiteOwner</t>
@@ -1017,7 +1026,7 @@
     <t>StructureHeight</t>
   </si>
   <si>
-    <t>33</t>
+    <t>33.0</t>
   </si>
   <si>
     <t>InstallationType</t>
@@ -1032,25 +1041,25 @@
     <t>RNC</t>
   </si>
   <si>
+    <t>RNC3</t>
+  </si>
+  <si>
     <t>CabinetType</t>
   </si>
   <si>
     <t>RF_Engineer</t>
   </si>
   <si>
-    <t>Krasimir Naydenov</t>
+    <t>mementa.velinova@gmail.com</t>
   </si>
   <si>
     <t>Mobile</t>
   </si>
   <si>
-    <t>+359878500413</t>
+    <t>+359878500157</t>
   </si>
   <si>
     <t>Email</t>
-  </si>
-  <si>
-    <t>krasimir.naydenov@vivacom.bg</t>
   </si>
   <si>
     <t>APM30</t>
@@ -2895,13 +2904,13 @@
   <sheetData>
     <row r="2" ht="21">
       <c r="A2" s="68" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B2" s="98" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="69" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E2" s="69"/>
       <c r="F2" s="69"/>
@@ -2915,92 +2924,92 @@
     </row>
     <row r="3" ht="20.4">
       <c r="A3" s="68" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B3" s="98" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D3" s="67"/>
       <c r="E3" s="70" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F3" s="71" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G3" s="72" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H3" s="71" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I3" s="73" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J3" s="74"/>
       <c r="K3" s="75" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L3" s="75"/>
       <c r="M3" s="74"/>
       <c r="N3" s="70" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O3" s="70" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" ht="21">
       <c r="A4" s="68" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B4" s="98" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D4" s="67"/>
       <c r="E4" s="76" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F4" s="77" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G4" s="78" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H4" s="79" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I4" s="80" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J4" s="80" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K4" s="81" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L4" s="78" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M4" s="78" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N4" s="76" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O4" s="76" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="82" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B5" s="99" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C5" s="84"/>
       <c r="D5" s="85" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E5" s="101">
         <v>1</v>
@@ -3009,7 +3018,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="101">
         <v>0</v>
@@ -3021,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="103">
         <v>1</v>
@@ -3038,14 +3047,14 @@
     </row>
     <row r="6">
       <c r="A6" s="82" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B6" s="99" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C6" s="84"/>
       <c r="D6" s="86" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E6" s="106">
         <v>1</v>
@@ -3054,7 +3063,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="106">
         <v>0</v>
@@ -3066,7 +3075,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="108">
         <v>1</v>
@@ -3083,10 +3092,10 @@
     </row>
     <row r="7">
       <c r="A7" s="82" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B7" s="99" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C7" s="84"/>
       <c r="D7" s="86" t="s">
@@ -3099,7 +3108,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="106">
         <v>0</v>
@@ -3111,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="108">
         <v>1</v>
@@ -3128,14 +3137,14 @@
     </row>
     <row r="8">
       <c r="A8" s="82" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B8" s="99" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C8" s="84"/>
       <c r="D8" s="86" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E8" s="87"/>
       <c r="F8" s="88"/>
@@ -3151,14 +3160,14 @@
     </row>
     <row r="9">
       <c r="A9" s="82" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B9" s="99" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C9" s="84"/>
       <c r="D9" s="86" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E9" s="87"/>
       <c r="F9" s="88"/>
@@ -3174,12 +3183,12 @@
     </row>
     <row r="10">
       <c r="A10" s="82" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B10" s="83"/>
       <c r="C10" s="84"/>
       <c r="D10" s="86" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E10" s="87"/>
       <c r="F10" s="88"/>
@@ -3195,14 +3204,14 @@
     </row>
     <row r="11">
       <c r="A11" s="82" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B11" s="99">
         <v>42.424786</v>
       </c>
       <c r="C11" s="84"/>
       <c r="D11" s="86" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E11" s="87"/>
       <c r="F11" s="88"/>
@@ -3218,14 +3227,14 @@
     </row>
     <row r="12">
       <c r="A12" s="82" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B12" s="99">
         <v>25.625752</v>
       </c>
       <c r="C12" s="84"/>
       <c r="D12" s="86" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E12" s="87"/>
       <c r="F12" s="88"/>
@@ -3241,14 +3250,14 @@
     </row>
     <row r="13" ht="13.8">
       <c r="A13" s="82" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B13" s="99" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C13" s="84"/>
       <c r="D13" s="92" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E13" s="93"/>
       <c r="F13" s="94"/>
@@ -3264,61 +3273,63 @@
     </row>
     <row r="14">
       <c r="A14" s="82" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B14" s="99" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="82" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B15" s="99" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F15" s="67"/>
     </row>
     <row r="16">
       <c r="A16" s="82" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B16" s="99" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F16" s="67"/>
     </row>
     <row r="17">
       <c r="A17" s="82" t="s">
-        <v>113</v>
-      </c>
-      <c r="B17" s="99"/>
+        <v>116</v>
+      </c>
+      <c r="B17" s="99" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="82" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B18" s="83"/>
     </row>
     <row r="19">
       <c r="A19" s="82" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B19" s="99" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="82" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B20" s="99" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="82" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B21" s="99" t="s">
         <v>120</v>
@@ -3372,7 +3383,7 @@
       <c r="A1" s="45"/>
       <c r="B1" s="46"/>
       <c r="C1" s="43" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D1" s="44"/>
       <c r="E1" s="44"/>
@@ -3693,7 +3704,7 @@
     <row r="16" ht="15.6">
       <c r="A16" s="60"/>
       <c r="B16" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
@@ -3712,7 +3723,7 @@
     <row r="17" ht="15.6">
       <c r="A17" s="60"/>
       <c r="B17" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
@@ -3731,7 +3742,7 @@
     <row r="18" ht="15.6">
       <c r="A18" s="60"/>
       <c r="B18" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
@@ -3750,7 +3761,7 @@
     <row r="19" ht="15.6">
       <c r="A19" s="60"/>
       <c r="B19" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
@@ -3769,7 +3780,7 @@
     <row r="20" ht="15.6">
       <c r="A20" s="60"/>
       <c r="B20" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
@@ -3788,7 +3799,7 @@
     <row r="21" ht="15.6">
       <c r="A21" s="60"/>
       <c r="B21" s="12" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
@@ -3807,7 +3818,7 @@
     <row r="22" ht="15.6">
       <c r="A22" s="60"/>
       <c r="B22" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
@@ -3826,7 +3837,7 @@
     <row r="23" ht="15.6">
       <c r="A23" s="60"/>
       <c r="B23" s="12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
@@ -3845,7 +3856,7 @@
     <row r="24" ht="15.6">
       <c r="A24" s="60"/>
       <c r="B24" s="12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
@@ -3864,7 +3875,7 @@
     <row r="25" ht="15.6">
       <c r="A25" s="60"/>
       <c r="B25" s="12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
@@ -3883,7 +3894,7 @@
     <row r="26" ht="15.6">
       <c r="A26" s="60"/>
       <c r="B26" s="12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
@@ -3902,7 +3913,7 @@
     <row r="27" ht="15.6">
       <c r="A27" s="60"/>
       <c r="B27" s="12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
@@ -3921,7 +3932,7 @@
     <row r="28" ht="15.6">
       <c r="A28" s="60"/>
       <c r="B28" s="12" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
@@ -3940,7 +3951,7 @@
     <row r="29" ht="15.6">
       <c r="A29" s="60"/>
       <c r="B29" s="12" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
@@ -3959,7 +3970,7 @@
     <row r="30" ht="15.6">
       <c r="A30" s="60"/>
       <c r="B30" s="12" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
@@ -3978,7 +3989,7 @@
     <row r="31" ht="15.6">
       <c r="A31" s="60"/>
       <c r="B31" s="12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
@@ -3997,7 +4008,7 @@
     <row r="32" ht="15.6">
       <c r="A32" s="60"/>
       <c r="B32" s="12" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
@@ -4016,7 +4027,7 @@
     <row r="33" ht="15.6">
       <c r="A33" s="26"/>
       <c r="B33" s="12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
@@ -4034,7 +4045,7 @@
     </row>
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="47" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B34" s="50"/>
       <c r="C34" s="51"/>
@@ -4163,7 +4174,7 @@
       <formula>OR(C$13="Free",C$13="Telenor",C$13="Mtel",C$13="Telenor&amp;Mtel")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="28">
+  <dataValidations count="26">
     <dataValidation type="list" sqref="C13" showErrorMessage="1" errorTitle="An invalid feedback was entered" error="Please choose feedback from drop down only.">
       <formula1>"900,1800,2100,1800&amp;2100,Free,N/A,Telenor,Mtel,Telenor&amp;Mtel"</formula1>
     </dataValidation>
@@ -4203,9 +4214,6 @@
     <dataValidation type="list" sqref="O13" showErrorMessage="1" errorTitle="An invalid feedback was entered" error="Please choose feedback from drop down only.">
       <formula1>"900,1800,2100,1800&amp;2100,Free,N/A,Telenor,Mtel,Telenor&amp;Mtel"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="P13" showErrorMessage="1" errorTitle="An invalid feedback was entered" error="Please choose feedback from drop down only.">
-      <formula1>"900,1800,2100,1800&amp;2100,Free,N/A,Telenor,Mtel,Telenor&amp;Mtel"</formula1>
-    </dataValidation>
     <dataValidation type="list" sqref="C14" showErrorMessage="1" errorTitle="An invalid feedback was entered" error="Please choose feedback from drop down only.">
       <formula1>"Telenor,Mtel,Telenor&amp;Mtel,Bulsatcom,N/A"</formula1>
     </dataValidation>
@@ -4243,9 +4251,6 @@
       <formula1>"Telenor,Mtel,Telenor&amp;Mtel,Bulsatcom,N/A"</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="O14" showErrorMessage="1" errorTitle="An invalid feedback was entered" error="Please choose feedback from drop down only.">
-      <formula1>"Telenor,Mtel,Telenor&amp;Mtel,Bulsatcom,N/A"</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="P14" showErrorMessage="1" errorTitle="An invalid feedback was entered" error="Please choose feedback from drop down only.">
       <formula1>"Telenor,Mtel,Telenor&amp;Mtel,Bulsatcom,N/A"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4270,37 +4275,37 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="25" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" ht="13.8">
       <c r="A3" s="24" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" ht="13.8">
       <c r="A4" s="24" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" ht="13.8">
       <c r="A5" s="24" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" ht="13.8">
       <c r="A6" s="24" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" ht="13.8">
       <c r="A7" s="24" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" ht="13.8">
       <c r="A8" s="24" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -4337,7 +4342,7 @@
       </c>
       <c r="B1" s="111"/>
       <c r="C1" s="112" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D1" s="113"/>
       <c r="E1" s="113"/>
@@ -4428,19 +4433,19 @@
         <v>5</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G5" s="37" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H5" s="125"/>
       <c r="I5" s="124"/>
@@ -4688,13 +4693,13 @@
         <v>32</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F15" s="19" t="s">
         <v>32</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H15" s="144"/>
       <c r="I15" s="144"/>
@@ -4708,22 +4713,22 @@
     <row r="16" ht="15.6">
       <c r="A16" s="122"/>
       <c r="B16" s="123" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H16" s="144"/>
       <c r="I16" s="144"/>
@@ -4737,7 +4742,7 @@
     <row r="17" ht="15.6">
       <c r="A17" s="122"/>
       <c r="B17" s="123" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
@@ -4756,22 +4761,22 @@
     <row r="18" ht="15.6">
       <c r="A18" s="122"/>
       <c r="B18" s="123" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H18" s="144"/>
       <c r="I18" s="144"/>
@@ -4785,22 +4790,22 @@
     <row r="19" ht="15.6">
       <c r="A19" s="122"/>
       <c r="B19" s="123" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H19" s="144"/>
       <c r="I19" s="144"/>
@@ -4814,22 +4819,22 @@
     <row r="20" ht="15.6">
       <c r="A20" s="122"/>
       <c r="B20" s="123" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H20" s="144"/>
       <c r="I20" s="144"/>
@@ -4843,22 +4848,22 @@
     <row r="21" ht="15.6">
       <c r="A21" s="122"/>
       <c r="B21" s="123" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H21" s="144"/>
       <c r="I21" s="144"/>
@@ -4872,7 +4877,7 @@
     <row r="22" ht="15.6">
       <c r="A22" s="122"/>
       <c r="B22" s="123" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C22" s="144"/>
       <c r="D22" s="144"/>
@@ -4891,7 +4896,7 @@
     <row r="23" ht="15.6">
       <c r="A23" s="122"/>
       <c r="B23" s="123" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C23" s="144"/>
       <c r="D23" s="144"/>
@@ -4910,7 +4915,7 @@
     <row r="24" ht="15.6">
       <c r="A24" s="122"/>
       <c r="B24" s="123" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C24" s="19">
         <v>1</v>
@@ -4939,22 +4944,22 @@
     <row r="25" ht="15.6">
       <c r="A25" s="122"/>
       <c r="B25" s="123" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H25" s="144"/>
       <c r="I25" s="144"/>
@@ -4968,19 +4973,19 @@
     <row r="26" ht="15.6">
       <c r="A26" s="122"/>
       <c r="B26" s="123" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C26" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="19">
         <v>0</v>
       </c>
       <c r="F26" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="19">
         <v>0</v>
@@ -4997,22 +5002,22 @@
     <row r="27" ht="15.6">
       <c r="A27" s="122"/>
       <c r="B27" s="123" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="19" t="s">
-        <v>44</v>
-      </c>
       <c r="D27" s="19" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H27" s="144"/>
       <c r="I27" s="144"/>
@@ -5026,7 +5031,7 @@
     <row r="28" ht="15.6">
       <c r="A28" s="122"/>
       <c r="B28" s="123" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C28" s="19">
         <v>1</v>
@@ -5055,22 +5060,22 @@
     <row r="29" ht="15.6">
       <c r="A29" s="122"/>
       <c r="B29" s="123" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H29" s="144"/>
       <c r="I29" s="144"/>
@@ -5084,22 +5089,22 @@
     <row r="30" ht="15.6">
       <c r="A30" s="122"/>
       <c r="B30" s="123" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="H30" s="144"/>
       <c r="I30" s="144"/>
@@ -5113,22 +5118,22 @@
     <row r="31" ht="15.6">
       <c r="A31" s="122"/>
       <c r="B31" s="123" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H31" s="144"/>
       <c r="I31" s="144"/>
@@ -5142,22 +5147,22 @@
     <row r="32" ht="15.6">
       <c r="A32" s="122"/>
       <c r="B32" s="123" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H32" s="144"/>
       <c r="I32" s="144"/>
@@ -5171,19 +5176,19 @@
     <row r="33" ht="15.6">
       <c r="A33" s="148"/>
       <c r="B33" s="123" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C33" s="19">
-        <v>51.694000494555262</v>
+        <v>50.131637916092174</v>
       </c>
       <c r="D33" s="19">
-        <v>51.696773718758052</v>
+        <v>50.556364713558537</v>
       </c>
       <c r="E33" s="19">
         <v>46.7418124604762</v>
       </c>
       <c r="F33" s="19">
-        <v>51.696773718758052</v>
+        <v>50.556364713558537</v>
       </c>
       <c r="G33" s="19">
         <v>46.7418124604762</v>
@@ -5199,7 +5204,7 @@
     </row>
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="150" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B34" s="162"/>
       <c r="C34" s="163"/>
@@ -5328,7 +5333,7 @@
       <formula>OR(C$13="Free",C$13="Telenor",C$13="Mtel",C$13="Telenor&amp;Mtel")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="28">
+  <dataValidations count="26">
     <dataValidation type="list" sqref="C13" showErrorMessage="1" errorTitle="An invalid feedback was entered" error="Please choose feedback from drop down only.">
       <formula1>"900,1800,2100,1800&amp;2100,Free,N/A,Telenor,Mtel,Telenor&amp;Mtel"</formula1>
     </dataValidation>
@@ -5368,9 +5373,6 @@
     <dataValidation type="list" sqref="O13" showErrorMessage="1" errorTitle="An invalid feedback was entered" error="Please choose feedback from drop down only.">
       <formula1>"900,1800,2100,1800&amp;2100,Free,N/A,Telenor,Mtel,Telenor&amp;Mtel"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="P13" showErrorMessage="1" errorTitle="An invalid feedback was entered" error="Please choose feedback from drop down only.">
-      <formula1>"900,1800,2100,1800&amp;2100,Free,N/A,Telenor,Mtel,Telenor&amp;Mtel"</formula1>
-    </dataValidation>
     <dataValidation type="list" sqref="C14" showErrorMessage="1" errorTitle="An invalid feedback was entered" error="Please choose feedback from drop down only.">
       <formula1>"Telenor,Mtel,Telenor&amp;Mtel,Bulsatcom,N/A"</formula1>
     </dataValidation>
@@ -5408,9 +5410,6 @@
       <formula1>"Telenor,Mtel,Telenor&amp;Mtel,Bulsatcom,N/A"</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="O14" showErrorMessage="1" errorTitle="An invalid feedback was entered" error="Please choose feedback from drop down only.">
-      <formula1>"Telenor,Mtel,Telenor&amp;Mtel,Bulsatcom,N/A"</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="P14" showErrorMessage="1" errorTitle="An invalid feedback was entered" error="Please choose feedback from drop down only.">
       <formula1>"Telenor,Mtel,Telenor&amp;Mtel,Bulsatcom,N/A"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5448,7 +5447,7 @@
       </c>
       <c r="B1" s="111"/>
       <c r="C1" s="112" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D1" s="113"/>
       <c r="E1" s="113"/>
@@ -5799,13 +5798,13 @@
         <v>32</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F15" s="19" t="s">
         <v>32</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H15" s="144"/>
       <c r="I15" s="144"/>
@@ -5819,22 +5818,22 @@
     <row r="16" ht="15.6">
       <c r="A16" s="122"/>
       <c r="B16" s="123" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H16" s="144"/>
       <c r="I16" s="144"/>
@@ -5848,7 +5847,7 @@
     <row r="17" ht="15.6">
       <c r="A17" s="122"/>
       <c r="B17" s="123" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
@@ -5867,22 +5866,22 @@
     <row r="18" ht="15.6">
       <c r="A18" s="122"/>
       <c r="B18" s="123" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H18" s="144"/>
       <c r="I18" s="144"/>
@@ -5896,22 +5895,22 @@
     <row r="19" ht="15.6">
       <c r="A19" s="122"/>
       <c r="B19" s="123" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H19" s="144"/>
       <c r="I19" s="144"/>
@@ -5925,22 +5924,22 @@
     <row r="20" ht="15.6">
       <c r="A20" s="122"/>
       <c r="B20" s="123" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H20" s="144"/>
       <c r="I20" s="144"/>
@@ -5954,22 +5953,22 @@
     <row r="21" ht="15.6">
       <c r="A21" s="122"/>
       <c r="B21" s="123" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H21" s="144"/>
       <c r="I21" s="144"/>
@@ -5983,7 +5982,7 @@
     <row r="22" ht="15.6">
       <c r="A22" s="122"/>
       <c r="B22" s="123" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C22" s="144"/>
       <c r="D22" s="144"/>
@@ -6002,7 +6001,7 @@
     <row r="23" ht="15.6">
       <c r="A23" s="122"/>
       <c r="B23" s="123" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C23" s="144"/>
       <c r="D23" s="144"/>
@@ -6021,7 +6020,7 @@
     <row r="24" ht="15.6">
       <c r="A24" s="122"/>
       <c r="B24" s="123" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C24" s="19">
         <v>1</v>
@@ -6050,22 +6049,22 @@
     <row r="25" ht="15.6">
       <c r="A25" s="122"/>
       <c r="B25" s="123" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H25" s="144"/>
       <c r="I25" s="144"/>
@@ -6079,19 +6078,19 @@
     <row r="26" ht="15.6">
       <c r="A26" s="122"/>
       <c r="B26" s="123" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C26" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="19">
         <v>0</v>
       </c>
       <c r="F26" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="19">
         <v>0</v>
@@ -6108,22 +6107,22 @@
     <row r="27" ht="15.6">
       <c r="A27" s="122"/>
       <c r="B27" s="123" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="19" t="s">
-        <v>44</v>
-      </c>
       <c r="D27" s="19" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H27" s="144"/>
       <c r="I27" s="144"/>
@@ -6137,7 +6136,7 @@
     <row r="28" ht="15.6">
       <c r="A28" s="122"/>
       <c r="B28" s="123" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C28" s="19">
         <v>1</v>
@@ -6166,22 +6165,22 @@
     <row r="29" ht="15.6">
       <c r="A29" s="122"/>
       <c r="B29" s="123" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H29" s="144"/>
       <c r="I29" s="144"/>
@@ -6195,22 +6194,22 @@
     <row r="30" ht="15.6">
       <c r="A30" s="122"/>
       <c r="B30" s="123" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="H30" s="144"/>
       <c r="I30" s="144"/>
@@ -6224,22 +6223,22 @@
     <row r="31" ht="15.6">
       <c r="A31" s="122"/>
       <c r="B31" s="123" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H31" s="144"/>
       <c r="I31" s="144"/>
@@ -6253,22 +6252,22 @@
     <row r="32" ht="15.6">
       <c r="A32" s="122"/>
       <c r="B32" s="123" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H32" s="144"/>
       <c r="I32" s="144"/>
@@ -6282,19 +6281,19 @@
     <row r="33" ht="15.6">
       <c r="A33" s="148"/>
       <c r="B33" s="123" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C33" s="19">
-        <v>51.694000494555262</v>
+        <v>50.131637916092174</v>
       </c>
       <c r="D33" s="19">
-        <v>51.696773718758052</v>
+        <v>50.556364713558537</v>
       </c>
       <c r="E33" s="19">
         <v>46.7418124604762</v>
       </c>
       <c r="F33" s="19">
-        <v>51.696773718758052</v>
+        <v>50.556364713558537</v>
       </c>
       <c r="G33" s="19">
         <v>46.7418124604762</v>
@@ -6310,7 +6309,7 @@
     </row>
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="150" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B34" s="162"/>
       <c r="C34" s="163"/>
@@ -6439,7 +6438,7 @@
       <formula>OR(C$13="Free",C$13="Telenor",C$13="Mtel",C$13="Telenor&amp;Mtel")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="28">
+  <dataValidations count="26">
     <dataValidation type="list" sqref="C13" showErrorMessage="1" errorTitle="An invalid feedback was entered" error="Please choose feedback from drop down only.">
       <formula1>"900,1800,2100,1800&amp;2100,Free,N/A,Telenor,Mtel,Telenor&amp;Mtel"</formula1>
     </dataValidation>
@@ -6479,9 +6478,6 @@
     <dataValidation type="list" sqref="O13" showErrorMessage="1" errorTitle="An invalid feedback was entered" error="Please choose feedback from drop down only.">
       <formula1>"900,1800,2100,1800&amp;2100,Free,N/A,Telenor,Mtel,Telenor&amp;Mtel"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="P13" showErrorMessage="1" errorTitle="An invalid feedback was entered" error="Please choose feedback from drop down only.">
-      <formula1>"900,1800,2100,1800&amp;2100,Free,N/A,Telenor,Mtel,Telenor&amp;Mtel"</formula1>
-    </dataValidation>
     <dataValidation type="list" sqref="C14" showErrorMessage="1" errorTitle="An invalid feedback was entered" error="Please choose feedback from drop down only.">
       <formula1>"Telenor,Mtel,Telenor&amp;Mtel,Bulsatcom,N/A"</formula1>
     </dataValidation>
@@ -6519,9 +6515,6 @@
       <formula1>"Telenor,Mtel,Telenor&amp;Mtel,Bulsatcom,N/A"</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="O14" showErrorMessage="1" errorTitle="An invalid feedback was entered" error="Please choose feedback from drop down only.">
-      <formula1>"Telenor,Mtel,Telenor&amp;Mtel,Bulsatcom,N/A"</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="P14" showErrorMessage="1" errorTitle="An invalid feedback was entered" error="Please choose feedback from drop down only.">
       <formula1>"Telenor,Mtel,Telenor&amp;Mtel,Bulsatcom,N/A"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6910,13 +6903,13 @@
         <v>32</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F15" s="19" t="s">
         <v>32</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H15" s="144"/>
       <c r="I15" s="144"/>
@@ -6930,22 +6923,22 @@
     <row r="16" ht="15.6">
       <c r="A16" s="122"/>
       <c r="B16" s="123" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H16" s="144"/>
       <c r="I16" s="144"/>
@@ -6959,7 +6952,7 @@
     <row r="17" ht="15.6">
       <c r="A17" s="122"/>
       <c r="B17" s="123" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
@@ -6978,22 +6971,22 @@
     <row r="18" ht="15.6">
       <c r="A18" s="122"/>
       <c r="B18" s="123" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H18" s="144"/>
       <c r="I18" s="144"/>
@@ -7007,22 +7000,22 @@
     <row r="19" ht="15.6">
       <c r="A19" s="122"/>
       <c r="B19" s="123" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H19" s="144"/>
       <c r="I19" s="144"/>
@@ -7036,22 +7029,22 @@
     <row r="20" ht="15.6">
       <c r="A20" s="122"/>
       <c r="B20" s="123" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H20" s="144"/>
       <c r="I20" s="144"/>
@@ -7065,22 +7058,22 @@
     <row r="21" ht="15.6">
       <c r="A21" s="122"/>
       <c r="B21" s="123" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H21" s="144"/>
       <c r="I21" s="144"/>
@@ -7094,7 +7087,7 @@
     <row r="22" ht="15.6">
       <c r="A22" s="122"/>
       <c r="B22" s="123" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C22" s="144"/>
       <c r="D22" s="144"/>
@@ -7113,7 +7106,7 @@
     <row r="23" ht="15.6">
       <c r="A23" s="122"/>
       <c r="B23" s="123" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C23" s="144"/>
       <c r="D23" s="144"/>
@@ -7132,7 +7125,7 @@
     <row r="24" ht="15.6">
       <c r="A24" s="122"/>
       <c r="B24" s="123" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C24" s="19">
         <v>1</v>
@@ -7161,22 +7154,22 @@
     <row r="25" ht="15.6">
       <c r="A25" s="122"/>
       <c r="B25" s="123" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H25" s="144"/>
       <c r="I25" s="144"/>
@@ -7190,19 +7183,19 @@
     <row r="26" ht="15.6">
       <c r="A26" s="122"/>
       <c r="B26" s="123" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C26" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="19">
         <v>0</v>
       </c>
       <c r="F26" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="19">
         <v>0</v>
@@ -7219,22 +7212,22 @@
     <row r="27" ht="15.6">
       <c r="A27" s="122"/>
       <c r="B27" s="123" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="19" t="s">
-        <v>44</v>
-      </c>
       <c r="D27" s="19" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H27" s="144"/>
       <c r="I27" s="144"/>
@@ -7248,7 +7241,7 @@
     <row r="28" ht="15.6">
       <c r="A28" s="122"/>
       <c r="B28" s="123" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C28" s="19">
         <v>1</v>
@@ -7277,22 +7270,22 @@
     <row r="29" ht="15.6">
       <c r="A29" s="122"/>
       <c r="B29" s="123" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H29" s="144"/>
       <c r="I29" s="144"/>
@@ -7306,22 +7299,22 @@
     <row r="30" ht="15.6">
       <c r="A30" s="122"/>
       <c r="B30" s="123" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="H30" s="144"/>
       <c r="I30" s="144"/>
@@ -7335,22 +7328,22 @@
     <row r="31" ht="15.6">
       <c r="A31" s="122"/>
       <c r="B31" s="123" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H31" s="144"/>
       <c r="I31" s="144"/>
@@ -7364,22 +7357,22 @@
     <row r="32" ht="15.6">
       <c r="A32" s="122"/>
       <c r="B32" s="123" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H32" s="144"/>
       <c r="I32" s="144"/>
@@ -7393,19 +7386,19 @@
     <row r="33" ht="15.6">
       <c r="A33" s="148"/>
       <c r="B33" s="123" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C33" s="19">
-        <v>51.694000494555262</v>
+        <v>50.131637916092174</v>
       </c>
       <c r="D33" s="19">
-        <v>51.696773718758052</v>
+        <v>50.556364713558537</v>
       </c>
       <c r="E33" s="19">
         <v>46.7418124604762</v>
       </c>
       <c r="F33" s="19">
-        <v>51.696773718758052</v>
+        <v>50.556364713558537</v>
       </c>
       <c r="G33" s="19">
         <v>46.7418124604762</v>
@@ -7421,7 +7414,7 @@
     </row>
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="150" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B34" s="162"/>
       <c r="C34" s="163"/>
@@ -7550,7 +7543,7 @@
       <formula>OR(C$13="Free",C$13="Telenor",C$13="Mtel",C$13="Telenor&amp;Mtel")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="28">
+  <dataValidations count="26">
     <dataValidation type="list" sqref="C13" showErrorMessage="1" errorTitle="An invalid feedback was entered" error="Please choose feedback from drop down only.">
       <formula1>"900,1800,2100,1800&amp;2100,Free,N/A,Telenor,Mtel,Telenor&amp;Mtel"</formula1>
     </dataValidation>
@@ -7590,9 +7583,6 @@
     <dataValidation type="list" sqref="O13" showErrorMessage="1" errorTitle="An invalid feedback was entered" error="Please choose feedback from drop down only.">
       <formula1>"900,1800,2100,1800&amp;2100,Free,N/A,Telenor,Mtel,Telenor&amp;Mtel"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="P13" showErrorMessage="1" errorTitle="An invalid feedback was entered" error="Please choose feedback from drop down only.">
-      <formula1>"900,1800,2100,1800&amp;2100,Free,N/A,Telenor,Mtel,Telenor&amp;Mtel"</formula1>
-    </dataValidation>
     <dataValidation type="list" sqref="C14" showErrorMessage="1" errorTitle="An invalid feedback was entered" error="Please choose feedback from drop down only.">
       <formula1>"Telenor,Mtel,Telenor&amp;Mtel,Bulsatcom,N/A"</formula1>
     </dataValidation>
@@ -7630,9 +7620,6 @@
       <formula1>"Telenor,Mtel,Telenor&amp;Mtel,Bulsatcom,N/A"</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="O14" showErrorMessage="1" errorTitle="An invalid feedback was entered" error="Please choose feedback from drop down only.">
-      <formula1>"Telenor,Mtel,Telenor&amp;Mtel,Bulsatcom,N/A"</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="P14" showErrorMessage="1" errorTitle="An invalid feedback was entered" error="Please choose feedback from drop down only.">
       <formula1>"Telenor,Mtel,Telenor&amp;Mtel,Bulsatcom,N/A"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7665,7 +7652,7 @@
       <c r="A1" s="45"/>
       <c r="B1" s="46"/>
       <c r="C1" s="43" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D1" s="44"/>
       <c r="E1" s="44"/>
@@ -7986,7 +7973,7 @@
     <row r="16" ht="15.6">
       <c r="A16" s="60"/>
       <c r="B16" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
@@ -8005,7 +7992,7 @@
     <row r="17" ht="15.6">
       <c r="A17" s="60"/>
       <c r="B17" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
@@ -8024,7 +8011,7 @@
     <row r="18" ht="15.6">
       <c r="A18" s="60"/>
       <c r="B18" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
@@ -8043,7 +8030,7 @@
     <row r="19" ht="15.6">
       <c r="A19" s="60"/>
       <c r="B19" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
@@ -8062,7 +8049,7 @@
     <row r="20" ht="15.6">
       <c r="A20" s="60"/>
       <c r="B20" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
@@ -8081,7 +8068,7 @@
     <row r="21" ht="15.6">
       <c r="A21" s="60"/>
       <c r="B21" s="12" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
@@ -8100,7 +8087,7 @@
     <row r="22" ht="15.6">
       <c r="A22" s="60"/>
       <c r="B22" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
@@ -8119,7 +8106,7 @@
     <row r="23" ht="15.6">
       <c r="A23" s="60"/>
       <c r="B23" s="12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
@@ -8138,7 +8125,7 @@
     <row r="24" ht="15.6">
       <c r="A24" s="60"/>
       <c r="B24" s="12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
@@ -8157,7 +8144,7 @@
     <row r="25" ht="15.6">
       <c r="A25" s="60"/>
       <c r="B25" s="12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
@@ -8176,7 +8163,7 @@
     <row r="26" ht="15.6">
       <c r="A26" s="60"/>
       <c r="B26" s="12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
@@ -8195,7 +8182,7 @@
     <row r="27" ht="15.6">
       <c r="A27" s="60"/>
       <c r="B27" s="12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
@@ -8214,7 +8201,7 @@
     <row r="28" ht="15.6">
       <c r="A28" s="60"/>
       <c r="B28" s="12" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
@@ -8233,7 +8220,7 @@
     <row r="29" ht="15.6">
       <c r="A29" s="60"/>
       <c r="B29" s="12" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
@@ -8252,7 +8239,7 @@
     <row r="30" ht="15.6">
       <c r="A30" s="60"/>
       <c r="B30" s="12" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
@@ -8271,7 +8258,7 @@
     <row r="31" ht="15.6">
       <c r="A31" s="60"/>
       <c r="B31" s="12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
@@ -8290,7 +8277,7 @@
     <row r="32" ht="15.6">
       <c r="A32" s="60"/>
       <c r="B32" s="12" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
@@ -8309,7 +8296,7 @@
     <row r="33" ht="15.6">
       <c r="A33" s="26"/>
       <c r="B33" s="12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
@@ -8327,7 +8314,7 @@
     </row>
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="47" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B34" s="50"/>
       <c r="C34" s="51"/>
@@ -8456,7 +8443,7 @@
       <formula>OR(C$13="Free",C$13="Telenor",C$13="Mtel",C$13="Telenor&amp;Mtel")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="28">
+  <dataValidations count="26">
     <dataValidation type="list" sqref="C13" showErrorMessage="1" errorTitle="An invalid feedback was entered" error="Please choose feedback from drop down only.">
       <formula1>"900,1800,2100,1800&amp;2100,Free,N/A,Telenor,Mtel,Telenor&amp;Mtel"</formula1>
     </dataValidation>
@@ -8496,9 +8483,6 @@
     <dataValidation type="list" sqref="O13" showErrorMessage="1" errorTitle="An invalid feedback was entered" error="Please choose feedback from drop down only.">
       <formula1>"900,1800,2100,1800&amp;2100,Free,N/A,Telenor,Mtel,Telenor&amp;Mtel"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="P13" showErrorMessage="1" errorTitle="An invalid feedback was entered" error="Please choose feedback from drop down only.">
-      <formula1>"900,1800,2100,1800&amp;2100,Free,N/A,Telenor,Mtel,Telenor&amp;Mtel"</formula1>
-    </dataValidation>
     <dataValidation type="list" sqref="C14" showErrorMessage="1" errorTitle="An invalid feedback was entered" error="Please choose feedback from drop down only.">
       <formula1>"Telenor,Mtel,Telenor&amp;Mtel,Bulsatcom,N/A"</formula1>
     </dataValidation>
@@ -8536,9 +8520,6 @@
       <formula1>"Telenor,Mtel,Telenor&amp;Mtel,Bulsatcom,N/A"</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="O14" showErrorMessage="1" errorTitle="An invalid feedback was entered" error="Please choose feedback from drop down only.">
-      <formula1>"Telenor,Mtel,Telenor&amp;Mtel,Bulsatcom,N/A"</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="P14" showErrorMessage="1" errorTitle="An invalid feedback was entered" error="Please choose feedback from drop down only.">
       <formula1>"Telenor,Mtel,Telenor&amp;Mtel,Bulsatcom,N/A"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8571,7 +8552,7 @@
       <c r="A1" s="45"/>
       <c r="B1" s="46"/>
       <c r="C1" s="43" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D1" s="44"/>
       <c r="E1" s="44"/>
@@ -8892,7 +8873,7 @@
     <row r="16" ht="15.6">
       <c r="A16" s="60"/>
       <c r="B16" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
@@ -8911,7 +8892,7 @@
     <row r="17" ht="15.6">
       <c r="A17" s="60"/>
       <c r="B17" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
@@ -8930,7 +8911,7 @@
     <row r="18" ht="15.6">
       <c r="A18" s="60"/>
       <c r="B18" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
@@ -8949,7 +8930,7 @@
     <row r="19" ht="15.6">
       <c r="A19" s="60"/>
       <c r="B19" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
@@ -8968,7 +8949,7 @@
     <row r="20" ht="15.6">
       <c r="A20" s="60"/>
       <c r="B20" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
@@ -8987,7 +8968,7 @@
     <row r="21" ht="15.6">
       <c r="A21" s="60"/>
       <c r="B21" s="12" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
@@ -9006,7 +8987,7 @@
     <row r="22" ht="15.6">
       <c r="A22" s="60"/>
       <c r="B22" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
@@ -9025,7 +9006,7 @@
     <row r="23" ht="15.6">
       <c r="A23" s="60"/>
       <c r="B23" s="12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
@@ -9044,7 +9025,7 @@
     <row r="24" ht="15.6">
       <c r="A24" s="60"/>
       <c r="B24" s="12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
@@ -9063,7 +9044,7 @@
     <row r="25" ht="15.6">
       <c r="A25" s="60"/>
       <c r="B25" s="12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
@@ -9082,7 +9063,7 @@
     <row r="26" ht="15.6">
       <c r="A26" s="60"/>
       <c r="B26" s="12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
@@ -9101,7 +9082,7 @@
     <row r="27" ht="15.6">
       <c r="A27" s="60"/>
       <c r="B27" s="12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
@@ -9120,7 +9101,7 @@
     <row r="28" ht="15.6">
       <c r="A28" s="60"/>
       <c r="B28" s="12" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
@@ -9139,7 +9120,7 @@
     <row r="29" ht="15.6">
       <c r="A29" s="60"/>
       <c r="B29" s="12" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
@@ -9158,7 +9139,7 @@
     <row r="30" ht="15.6">
       <c r="A30" s="60"/>
       <c r="B30" s="12" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
@@ -9177,7 +9158,7 @@
     <row r="31" ht="15.6">
       <c r="A31" s="60"/>
       <c r="B31" s="12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
@@ -9196,7 +9177,7 @@
     <row r="32" ht="15.6">
       <c r="A32" s="60"/>
       <c r="B32" s="12" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
@@ -9215,7 +9196,7 @@
     <row r="33" ht="15.6">
       <c r="A33" s="26"/>
       <c r="B33" s="12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
@@ -9233,7 +9214,7 @@
     </row>
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="47" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B34" s="50"/>
       <c r="C34" s="51"/>
@@ -9362,7 +9343,7 @@
       <formula>OR(C$13="Free",C$13="Telenor",C$13="Mtel",C$13="Telenor&amp;Mtel")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="28">
+  <dataValidations count="26">
     <dataValidation type="list" sqref="C13" showErrorMessage="1" errorTitle="An invalid feedback was entered" error="Please choose feedback from drop down only.">
       <formula1>"900,1800,2100,1800&amp;2100,Free,N/A,Telenor,Mtel,Telenor&amp;Mtel"</formula1>
     </dataValidation>
@@ -9402,9 +9383,6 @@
     <dataValidation type="list" sqref="O13" showErrorMessage="1" errorTitle="An invalid feedback was entered" error="Please choose feedback from drop down only.">
       <formula1>"900,1800,2100,1800&amp;2100,Free,N/A,Telenor,Mtel,Telenor&amp;Mtel"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="P13" showErrorMessage="1" errorTitle="An invalid feedback was entered" error="Please choose feedback from drop down only.">
-      <formula1>"900,1800,2100,1800&amp;2100,Free,N/A,Telenor,Mtel,Telenor&amp;Mtel"</formula1>
-    </dataValidation>
     <dataValidation type="list" sqref="C14" showErrorMessage="1" errorTitle="An invalid feedback was entered" error="Please choose feedback from drop down only.">
       <formula1>"Telenor,Mtel,Telenor&amp;Mtel,Bulsatcom,N/A"</formula1>
     </dataValidation>
@@ -9442,9 +9420,6 @@
       <formula1>"Telenor,Mtel,Telenor&amp;Mtel,Bulsatcom,N/A"</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="O14" showErrorMessage="1" errorTitle="An invalid feedback was entered" error="Please choose feedback from drop down only.">
-      <formula1>"Telenor,Mtel,Telenor&amp;Mtel,Bulsatcom,N/A"</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="P14" showErrorMessage="1" errorTitle="An invalid feedback was entered" error="Please choose feedback from drop down only.">
       <formula1>"Telenor,Mtel,Telenor&amp;Mtel,Bulsatcom,N/A"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9477,7 +9452,7 @@
       <c r="A1" s="45"/>
       <c r="B1" s="46"/>
       <c r="C1" s="43" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D1" s="44"/>
       <c r="E1" s="44"/>
@@ -9798,7 +9773,7 @@
     <row r="16" ht="15.6">
       <c r="A16" s="60"/>
       <c r="B16" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
@@ -9817,7 +9792,7 @@
     <row r="17" ht="15.6">
       <c r="A17" s="60"/>
       <c r="B17" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
@@ -9836,7 +9811,7 @@
     <row r="18" ht="15.6">
       <c r="A18" s="60"/>
       <c r="B18" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
@@ -9855,7 +9830,7 @@
     <row r="19" ht="15.6">
       <c r="A19" s="60"/>
       <c r="B19" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
@@ -9874,7 +9849,7 @@
     <row r="20" ht="15.6">
       <c r="A20" s="60"/>
       <c r="B20" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
@@ -9893,7 +9868,7 @@
     <row r="21" ht="15.6">
       <c r="A21" s="60"/>
       <c r="B21" s="12" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
@@ -9912,7 +9887,7 @@
     <row r="22" ht="15.6">
       <c r="A22" s="60"/>
       <c r="B22" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
@@ -9931,7 +9906,7 @@
     <row r="23" ht="15.6">
       <c r="A23" s="60"/>
       <c r="B23" s="12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
@@ -9950,7 +9925,7 @@
     <row r="24" ht="15.6">
       <c r="A24" s="60"/>
       <c r="B24" s="12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
@@ -9969,7 +9944,7 @@
     <row r="25" ht="15.6">
       <c r="A25" s="60"/>
       <c r="B25" s="12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
@@ -9988,7 +9963,7 @@
     <row r="26" ht="15.6">
       <c r="A26" s="60"/>
       <c r="B26" s="12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
@@ -10007,7 +9982,7 @@
     <row r="27" ht="15.6">
       <c r="A27" s="60"/>
       <c r="B27" s="12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
@@ -10026,7 +10001,7 @@
     <row r="28" ht="15.6">
       <c r="A28" s="60"/>
       <c r="B28" s="12" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
@@ -10045,7 +10020,7 @@
     <row r="29" ht="15.6">
       <c r="A29" s="60"/>
       <c r="B29" s="12" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
@@ -10064,7 +10039,7 @@
     <row r="30" ht="15.6">
       <c r="A30" s="60"/>
       <c r="B30" s="12" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
@@ -10083,7 +10058,7 @@
     <row r="31" ht="15.6">
       <c r="A31" s="60"/>
       <c r="B31" s="12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
@@ -10102,7 +10077,7 @@
     <row r="32" ht="15.6">
       <c r="A32" s="60"/>
       <c r="B32" s="12" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
@@ -10121,7 +10096,7 @@
     <row r="33" ht="15.6">
       <c r="A33" s="26"/>
       <c r="B33" s="12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
@@ -10139,7 +10114,7 @@
     </row>
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="47" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B34" s="50"/>
       <c r="C34" s="51"/>
@@ -10268,7 +10243,7 @@
       <formula>OR(C$13="Free",C$13="Telenor",C$13="Mtel",C$13="Telenor&amp;Mtel")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="28">
+  <dataValidations count="26">
     <dataValidation type="list" sqref="C13" showErrorMessage="1" errorTitle="An invalid feedback was entered" error="Please choose feedback from drop down only.">
       <formula1>"900,1800,2100,1800&amp;2100,Free,N/A,Telenor,Mtel,Telenor&amp;Mtel"</formula1>
     </dataValidation>
@@ -10308,9 +10283,6 @@
     <dataValidation type="list" sqref="O13" showErrorMessage="1" errorTitle="An invalid feedback was entered" error="Please choose feedback from drop down only.">
       <formula1>"900,1800,2100,1800&amp;2100,Free,N/A,Telenor,Mtel,Telenor&amp;Mtel"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="P13" showErrorMessage="1" errorTitle="An invalid feedback was entered" error="Please choose feedback from drop down only.">
-      <formula1>"900,1800,2100,1800&amp;2100,Free,N/A,Telenor,Mtel,Telenor&amp;Mtel"</formula1>
-    </dataValidation>
     <dataValidation type="list" sqref="C14" showErrorMessage="1" errorTitle="An invalid feedback was entered" error="Please choose feedback from drop down only.">
       <formula1>"Telenor,Mtel,Telenor&amp;Mtel,Bulsatcom,N/A"</formula1>
     </dataValidation>
@@ -10348,9 +10320,6 @@
       <formula1>"Telenor,Mtel,Telenor&amp;Mtel,Bulsatcom,N/A"</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="O14" showErrorMessage="1" errorTitle="An invalid feedback was entered" error="Please choose feedback from drop down only.">
-      <formula1>"Telenor,Mtel,Telenor&amp;Mtel,Bulsatcom,N/A"</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="P14" showErrorMessage="1" errorTitle="An invalid feedback was entered" error="Please choose feedback from drop down only.">
       <formula1>"Telenor,Mtel,Telenor&amp;Mtel,Bulsatcom,N/A"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10383,7 +10352,7 @@
       <c r="A1" s="45"/>
       <c r="B1" s="46"/>
       <c r="C1" s="43" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D1" s="44"/>
       <c r="E1" s="44"/>
@@ -10704,7 +10673,7 @@
     <row r="16" ht="15.6">
       <c r="A16" s="60"/>
       <c r="B16" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
@@ -10723,7 +10692,7 @@
     <row r="17" ht="15.6">
       <c r="A17" s="60"/>
       <c r="B17" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
@@ -10742,7 +10711,7 @@
     <row r="18" ht="15.6">
       <c r="A18" s="60"/>
       <c r="B18" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
@@ -10761,7 +10730,7 @@
     <row r="19" ht="15.6">
       <c r="A19" s="60"/>
       <c r="B19" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
@@ -10780,7 +10749,7 @@
     <row r="20" ht="15.6">
       <c r="A20" s="60"/>
       <c r="B20" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
@@ -10799,7 +10768,7 @@
     <row r="21" ht="15.6">
       <c r="A21" s="60"/>
       <c r="B21" s="12" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
@@ -10818,7 +10787,7 @@
     <row r="22" ht="15.6">
       <c r="A22" s="60"/>
       <c r="B22" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
@@ -10837,7 +10806,7 @@
     <row r="23" ht="15.6">
       <c r="A23" s="60"/>
       <c r="B23" s="12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
@@ -10856,7 +10825,7 @@
     <row r="24" ht="15.6">
       <c r="A24" s="60"/>
       <c r="B24" s="12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
@@ -10875,7 +10844,7 @@
     <row r="25" ht="15.6">
       <c r="A25" s="60"/>
       <c r="B25" s="12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
@@ -10894,7 +10863,7 @@
     <row r="26" ht="15.6">
       <c r="A26" s="60"/>
       <c r="B26" s="12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
@@ -10913,7 +10882,7 @@
     <row r="27" ht="15.6">
       <c r="A27" s="60"/>
       <c r="B27" s="12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
@@ -10932,7 +10901,7 @@
     <row r="28" ht="15.6">
       <c r="A28" s="60"/>
       <c r="B28" s="12" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
@@ -10951,7 +10920,7 @@
     <row r="29" ht="15.6">
       <c r="A29" s="60"/>
       <c r="B29" s="12" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
@@ -10970,7 +10939,7 @@
     <row r="30" ht="15.6">
       <c r="A30" s="60"/>
       <c r="B30" s="12" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
@@ -10989,7 +10958,7 @@
     <row r="31" ht="15.6">
       <c r="A31" s="60"/>
       <c r="B31" s="12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
@@ -11008,7 +10977,7 @@
     <row r="32" ht="15.6">
       <c r="A32" s="60"/>
       <c r="B32" s="12" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
@@ -11027,7 +10996,7 @@
     <row r="33" ht="15.6">
       <c r="A33" s="26"/>
       <c r="B33" s="12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
@@ -11045,7 +11014,7 @@
     </row>
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="47" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B34" s="50"/>
       <c r="C34" s="51"/>
@@ -11174,7 +11143,7 @@
       <formula>OR(C$13="Free",C$13="Telenor",C$13="Mtel",C$13="Telenor&amp;Mtel")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="28">
+  <dataValidations count="26">
     <dataValidation type="list" sqref="C13" showErrorMessage="1" errorTitle="An invalid feedback was entered" error="Please choose feedback from drop down only.">
       <formula1>"900,1800,2100,1800&amp;2100,Free,N/A,Telenor,Mtel,Telenor&amp;Mtel"</formula1>
     </dataValidation>
@@ -11214,9 +11183,6 @@
     <dataValidation type="list" sqref="O13" showErrorMessage="1" errorTitle="An invalid feedback was entered" error="Please choose feedback from drop down only.">
       <formula1>"900,1800,2100,1800&amp;2100,Free,N/A,Telenor,Mtel,Telenor&amp;Mtel"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="P13" showErrorMessage="1" errorTitle="An invalid feedback was entered" error="Please choose feedback from drop down only.">
-      <formula1>"900,1800,2100,1800&amp;2100,Free,N/A,Telenor,Mtel,Telenor&amp;Mtel"</formula1>
-    </dataValidation>
     <dataValidation type="list" sqref="C14" showErrorMessage="1" errorTitle="An invalid feedback was entered" error="Please choose feedback from drop down only.">
       <formula1>"Telenor,Mtel,Telenor&amp;Mtel,Bulsatcom,N/A"</formula1>
     </dataValidation>
@@ -11254,9 +11220,6 @@
       <formula1>"Telenor,Mtel,Telenor&amp;Mtel,Bulsatcom,N/A"</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="O14" showErrorMessage="1" errorTitle="An invalid feedback was entered" error="Please choose feedback from drop down only.">
-      <formula1>"Telenor,Mtel,Telenor&amp;Mtel,Bulsatcom,N/A"</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="P14" showErrorMessage="1" errorTitle="An invalid feedback was entered" error="Please choose feedback from drop down only.">
       <formula1>"Telenor,Mtel,Telenor&amp;Mtel,Bulsatcom,N/A"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11289,7 +11252,7 @@
       <c r="A1" s="45"/>
       <c r="B1" s="46"/>
       <c r="C1" s="43" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D1" s="44"/>
       <c r="E1" s="44"/>
@@ -11610,7 +11573,7 @@
     <row r="16" ht="15.6">
       <c r="A16" s="60"/>
       <c r="B16" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
@@ -11629,7 +11592,7 @@
     <row r="17" ht="15.6">
       <c r="A17" s="60"/>
       <c r="B17" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
@@ -11648,7 +11611,7 @@
     <row r="18" ht="15.6">
       <c r="A18" s="60"/>
       <c r="B18" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
@@ -11667,7 +11630,7 @@
     <row r="19" ht="15.6">
       <c r="A19" s="60"/>
       <c r="B19" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
@@ -11686,7 +11649,7 @@
     <row r="20" ht="15.6">
       <c r="A20" s="60"/>
       <c r="B20" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
@@ -11705,7 +11668,7 @@
     <row r="21" ht="15.6">
       <c r="A21" s="60"/>
       <c r="B21" s="12" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
@@ -11724,7 +11687,7 @@
     <row r="22" ht="15.6">
       <c r="A22" s="60"/>
       <c r="B22" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
@@ -11743,7 +11706,7 @@
     <row r="23" ht="15.6">
       <c r="A23" s="60"/>
       <c r="B23" s="12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
@@ -11762,7 +11725,7 @@
     <row r="24" ht="15.6">
       <c r="A24" s="60"/>
       <c r="B24" s="12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
@@ -11781,7 +11744,7 @@
     <row r="25" ht="15.6">
       <c r="A25" s="60"/>
       <c r="B25" s="12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
@@ -11800,7 +11763,7 @@
     <row r="26" ht="15.6">
       <c r="A26" s="60"/>
       <c r="B26" s="12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
@@ -11819,7 +11782,7 @@
     <row r="27" ht="15.6">
       <c r="A27" s="60"/>
       <c r="B27" s="12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
@@ -11838,7 +11801,7 @@
     <row r="28" ht="15.6">
       <c r="A28" s="60"/>
       <c r="B28" s="12" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
@@ -11857,7 +11820,7 @@
     <row r="29" ht="15.6">
       <c r="A29" s="60"/>
       <c r="B29" s="12" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
@@ -11876,7 +11839,7 @@
     <row r="30" ht="15.6">
       <c r="A30" s="60"/>
       <c r="B30" s="12" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
@@ -11895,7 +11858,7 @@
     <row r="31" ht="15.6">
       <c r="A31" s="60"/>
       <c r="B31" s="12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
@@ -11914,7 +11877,7 @@
     <row r="32" ht="15.6">
       <c r="A32" s="60"/>
       <c r="B32" s="12" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
@@ -11933,7 +11896,7 @@
     <row r="33" ht="15.6">
       <c r="A33" s="26"/>
       <c r="B33" s="12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
@@ -11951,7 +11914,7 @@
     </row>
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="47" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B34" s="50"/>
       <c r="C34" s="51"/>
@@ -12080,7 +12043,7 @@
       <formula>OR(C$13="Free",C$13="Telenor",C$13="Mtel",C$13="Telenor&amp;Mtel")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="28">
+  <dataValidations count="26">
     <dataValidation type="list" sqref="C13" showErrorMessage="1" errorTitle="An invalid feedback was entered" error="Please choose feedback from drop down only.">
       <formula1>"900,1800,2100,1800&amp;2100,Free,N/A,Telenor,Mtel,Telenor&amp;Mtel"</formula1>
     </dataValidation>
@@ -12120,9 +12083,6 @@
     <dataValidation type="list" sqref="O13" showErrorMessage="1" errorTitle="An invalid feedback was entered" error="Please choose feedback from drop down only.">
       <formula1>"900,1800,2100,1800&amp;2100,Free,N/A,Telenor,Mtel,Telenor&amp;Mtel"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="P13" showErrorMessage="1" errorTitle="An invalid feedback was entered" error="Please choose feedback from drop down only.">
-      <formula1>"900,1800,2100,1800&amp;2100,Free,N/A,Telenor,Mtel,Telenor&amp;Mtel"</formula1>
-    </dataValidation>
     <dataValidation type="list" sqref="C14" showErrorMessage="1" errorTitle="An invalid feedback was entered" error="Please choose feedback from drop down only.">
       <formula1>"Telenor,Mtel,Telenor&amp;Mtel,Bulsatcom,N/A"</formula1>
     </dataValidation>
@@ -12160,9 +12120,6 @@
       <formula1>"Telenor,Mtel,Telenor&amp;Mtel,Bulsatcom,N/A"</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="O14" showErrorMessage="1" errorTitle="An invalid feedback was entered" error="Please choose feedback from drop down only.">
-      <formula1>"Telenor,Mtel,Telenor&amp;Mtel,Bulsatcom,N/A"</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="P14" showErrorMessage="1" errorTitle="An invalid feedback was entered" error="Please choose feedback from drop down only.">
       <formula1>"Telenor,Mtel,Telenor&amp;Mtel,Bulsatcom,N/A"</formula1>
     </dataValidation>
   </dataValidations>
